--- a/javascript_条件式.xlsx
+++ b/javascript_条件式.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AAAya\OneDrive\python\OneDrive\デスクトップ\Javascript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\kali-linux\home\pino26\git_test\javascript_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A482FCB5-185E-4989-A581-FE27BE859665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D2CFFB-0E62-498F-AB85-4C9FF7936578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0BE883B3-0354-44F6-971D-642DA7E2F4D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0BE883B3-0354-44F6-971D-642DA7E2F4D8}"/>
   </bookViews>
   <sheets>
     <sheet name=" 比較演算子" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
   <si>
     <t>演算子</t>
   </si>
@@ -433,6 +433,15 @@
       <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0 === false   // false</t>
+  </si>
+  <si>
+    <t>'' === 0      // false</t>
+  </si>
+  <si>
+    <t>null === undefined // false</t>
   </si>
 </sst>
 </file>
@@ -679,64 +688,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -746,15 +701,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -766,6 +712,78 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,8 +807,170 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0361BE-7D48-859F-5DBF-71BD38EC272B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="1295400"/>
+          <a:ext cx="4838700" cy="1264920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>まとめ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>JavaScript</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>は </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>==</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> が「型を勝手に変換する」から危ない☆★</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>②だから </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>===</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（型も値も同じ）が好まれる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>③同じパターンの言語は </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>PHP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>④他の多くの言語（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Python, Java, C# </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>など）は </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>==</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> がすでに厳密比較</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1110,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C215CA-1D98-4210-9C8F-A633A3078373}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1125,138 +1305,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="b">
+      <c r="D2" s="19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="24" t="b">
+      <c r="D3" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9" t="b">
+      <c r="D4" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9" t="b">
+      <c r="D5" s="31" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="9" t="b">
+      <c r="D6" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="9" t="b">
+      <c r="D7" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="9" t="b">
+      <c r="D8" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="12" t="b">
+      <c r="D9" s="16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1264,71 +1460,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4442D67B-9F0F-4672-8D46-C7A40DBF7DCF}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.19921875" customWidth="1"/>
+    <col min="1" max="1" width="21.69921875" customWidth="1"/>
     <col min="2" max="2" width="29.19921875" customWidth="1"/>
     <col min="3" max="3" width="26.8984375" customWidth="1"/>
     <col min="4" max="4" width="26.19921875" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="84.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="b">
+      <c r="D2" s="19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="6" t="b">
+      <c r="D3" s="22" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="15" t="b">
+      <c r="D4" s="25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1344,98 +1541,98 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24.19921875" customWidth="1"/>
     <col min="2" max="2" width="23.3984375" customWidth="1"/>
-    <col min="3" max="3" width="31.796875" customWidth="1"/>
-    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col min="3" max="3" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="69.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="58.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="47.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1451,7 +1648,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1462,57 +1659,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="78" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="16" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1528,7 +1725,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1539,57 +1736,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="75.599999999999994" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="11" t="b">
+      <c r="B5" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="12" t="b">
+      <c r="C5" s="16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1605,7 +1802,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1616,79 +1813,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="93.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="16" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1716,72 +1913,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="88.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="16" t="s">
         <v>125</v>
       </c>
     </row>
